--- a/views/history-paramfund/_export.xlsx
+++ b/views/history-paramfund/_export.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="16">
   <si>
     <t>No</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Kode Emiten</t>
+  </si>
+  <si>
+    <t>Rata-rata</t>
+  </si>
+  <si>
+    <t>TGL/WAKTU</t>
   </si>
 </sst>
 </file>
@@ -154,7 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -176,9 +182,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -191,6 +194,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -497,15 +521,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="K2" sqref="K2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="12.140625" style="3" customWidth="1"/>
@@ -514,20 +538,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
@@ -539,16 +563,18 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -589,7 +615,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="7">
@@ -620,356 +646,358 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="18">
+        <f>AVERAGE(F5)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18">
+        <f>AVERAGE(H5)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="8" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="18">
+        <f>AVERAGE(F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="18">
+        <f>AVERAGE(H10)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="13" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="18">
+        <f>AVERAGE(F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="18">
+        <f>AVERAGE(H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="18" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="18">
+        <f>AVERAGE(F20)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="18">
+        <f>AVERAGE(H20)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="23" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7">
-        <v>0</v>
-      </c>
-      <c r="K21" s="7">
-        <v>0</v>
-      </c>
-      <c r="L21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1019,7 +1047,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7">
@@ -1050,353 +1078,572 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="18">
+        <f>AVERAGE(F25)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="18">
+        <f>AVERAGE(H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="28" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7">
-        <v>0</v>
-      </c>
-      <c r="K29" s="7">
-        <v>0</v>
-      </c>
-      <c r="L29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="18">
+        <f>AVERAGE(F30)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="18">
+        <f>AVERAGE(H30)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="33" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="7">
-        <v>0</v>
-      </c>
-      <c r="E33" s="7">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7">
-        <v>0</v>
-      </c>
-      <c r="K33" s="7">
-        <v>0</v>
-      </c>
-      <c r="L33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="18">
+        <f>AVERAGE(F35)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="19"/>
+      <c r="H36" s="18">
+        <f>AVERAGE(H35)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+    </row>
+    <row r="38" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="7">
-        <v>0</v>
-      </c>
-      <c r="E37" s="7">
-        <v>0</v>
-      </c>
-      <c r="F37" s="7">
-        <v>0</v>
-      </c>
-      <c r="G37" s="7">
-        <v>0</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7">
-        <v>0</v>
-      </c>
-      <c r="K37" s="7">
-        <v>0</v>
-      </c>
-      <c r="L37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="18">
+        <f>AVERAGE(F40)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="19"/>
+      <c r="H41" s="18">
+        <f>AVERAGE(H40)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+    </row>
+    <row r="43" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L44" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="7">
-        <v>0</v>
-      </c>
-      <c r="E41" s="7">
-        <v>0</v>
-      </c>
-      <c r="F41" s="7">
-        <v>0</v>
-      </c>
-      <c r="G41" s="7">
-        <v>0</v>
-      </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7">
-        <v>0</v>
-      </c>
-      <c r="J41" s="7">
-        <v>0</v>
-      </c>
-      <c r="K41" s="7">
-        <v>0</v>
-      </c>
-      <c r="L41" s="7">
-        <v>0</v>
-      </c>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="7">
+        <v>0</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="18">
+        <f>AVERAGE(F45)</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="19"/>
+      <c r="H46" s="18">
+        <f>AVERAGE(H45)</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+    </row>
+    <row r="48" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="7">
+        <v>0</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7">
+        <v>0</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="7">
+        <f>AVERAGE(F50)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="17"/>
+      <c r="H51" s="7">
+        <f>AVERAGE(H50)</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/views/history-paramfund/_export.xlsx
+++ b/views/history-paramfund/_export.xlsx
@@ -160,7 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -208,9 +208,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -521,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L2"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -538,20 +535,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
@@ -566,8 +563,8 @@
       <c r="J2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -646,545 +643,507 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="18">
-        <f>AVERAGE(F5)</f>
-        <v>0</v>
-      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="18">
-        <f>AVERAGE(H5)</f>
-        <v>0</v>
-      </c>
+      <c r="H6" s="7"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="8" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="18">
+        <f>AVERAGE(F5:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18">
+        <f>AVERAGE(H5:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="9" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-    </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="18">
-        <f>AVERAGE(F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="18">
-        <f>AVERAGE(H10)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="13" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="F13" s="18">
+        <f>AVERAGE(F11:F12)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18">
+        <f>AVERAGE(H11:H12)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="15" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="18">
-        <f>AVERAGE(F15)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="18">
-        <f>AVERAGE(H15)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-    </row>
-    <row r="18" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="F19" s="18">
+        <f>AVERAGE(F17:F18)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18">
+        <f>AVERAGE(H17:H18)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="21" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="18">
-        <f>AVERAGE(F20)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="18">
-        <f>AVERAGE(H20)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-    </row>
-    <row r="23" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="F25" s="18">
+        <f>AVERAGE(F23:F24)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18">
+        <f>AVERAGE(H23:H24)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="27" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7">
-        <v>0</v>
-      </c>
-      <c r="K25" s="7">
-        <v>0</v>
-      </c>
-      <c r="L25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="18">
-        <f>AVERAGE(F25)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="18">
-        <f>AVERAGE(H25)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-    </row>
-    <row r="28" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
-      <c r="G30" s="7">
-        <v>0</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7">
-        <v>0</v>
-      </c>
-      <c r="K30" s="7">
-        <v>0</v>
-      </c>
-      <c r="L30" s="7">
-        <v>0</v>
-      </c>
+      <c r="A29" s="9"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
@@ -1195,12 +1154,12 @@
         <v>14</v>
       </c>
       <c r="F31" s="18">
-        <f>AVERAGE(F30)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="19"/>
+        <f>AVERAGE(F29:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="17"/>
       <c r="H31" s="18">
-        <f>AVERAGE(H30)</f>
+        <f>AVERAGE(H29:H30)</f>
         <v>0</v>
       </c>
       <c r="I31" s="17"/>
@@ -1294,351 +1253,529 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="18">
-        <f>AVERAGE(F35)</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="18">
-        <f>AVERAGE(H35)</f>
-        <v>0</v>
-      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="7"/>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
     </row>
-    <row r="38" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="18">
+        <f>AVERAGE(F35:F36)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18">
+        <f>AVERAGE(H35:H36)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+    </row>
+    <row r="39" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="7">
-        <v>0</v>
-      </c>
-      <c r="E40" s="7">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7">
-        <v>0</v>
-      </c>
-      <c r="G40" s="7">
-        <v>0</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0</v>
-      </c>
-      <c r="J40" s="7">
-        <v>0</v>
-      </c>
-      <c r="K40" s="7">
-        <v>0</v>
-      </c>
-      <c r="L40" s="7">
-        <v>0</v>
-      </c>
-    </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="18">
-        <f>AVERAGE(F40)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="18">
-        <f>AVERAGE(H40)</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-    </row>
-    <row r="43" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
+      <c r="F43" s="18">
+        <f>AVERAGE(F41:F42)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="17"/>
+      <c r="H43" s="18">
+        <f>AVERAGE(H41:H42)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+    </row>
+    <row r="45" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L46" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="7">
-        <v>0</v>
-      </c>
-      <c r="E45" s="7">
-        <v>0</v>
-      </c>
-      <c r="F45" s="7">
-        <v>0</v>
-      </c>
-      <c r="G45" s="7">
-        <v>0</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7">
-        <v>0</v>
-      </c>
-      <c r="K45" s="7">
-        <v>0</v>
-      </c>
-      <c r="L45" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="18" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="7">
+        <v>0</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0</v>
+      </c>
+      <c r="K47" s="7">
+        <v>0</v>
+      </c>
+      <c r="L47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="18">
-        <f>AVERAGE(F45)</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="19"/>
-      <c r="H46" s="18">
-        <f>AVERAGE(H45)</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-    </row>
-    <row r="48" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
+      <c r="F49" s="18">
+        <f>AVERAGE(F47:F48)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="17"/>
+      <c r="H49" s="18">
+        <f>AVERAGE(H47:H48)</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+    </row>
+    <row r="51" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L52" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="7">
-        <v>0</v>
-      </c>
-      <c r="E50" s="7">
-        <v>0</v>
-      </c>
-      <c r="F50" s="7">
-        <v>0</v>
-      </c>
-      <c r="G50" s="7">
-        <v>0</v>
-      </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7">
-        <v>0</v>
-      </c>
-      <c r="K50" s="7">
-        <v>0</v>
-      </c>
-      <c r="L50" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="7" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="9"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="7">
+        <v>0</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7">
+        <v>0</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0</v>
+      </c>
+      <c r="L53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="14"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="7">
-        <f>AVERAGE(F50)</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="7">
-        <f>AVERAGE(H50)</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
+      <c r="F55" s="18">
+        <f>AVERAGE(F53:F54)</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="17"/>
+      <c r="H55" s="18">
+        <f>AVERAGE(H53:H54)</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+    </row>
+    <row r="57" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="9"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="7">
+        <v>0</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
+      <c r="J59" s="7">
+        <v>0</v>
+      </c>
+      <c r="K59" s="7">
+        <v>0</v>
+      </c>
+      <c r="L59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="14"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="18">
+        <f>AVERAGE(F59:F60)</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="17"/>
+      <c r="H61" s="18">
+        <f>AVERAGE(H59:H60)</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
